--- a/2025-BBTANAUAN/02 - Coronation/Sheets/JUDGE 4/03 - Swimwear 15.xlsx
+++ b/2025-BBTANAUAN/02 - Coronation/Sheets/JUDGE 4/03 - Swimwear 15.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\Github Clone\School-Based-Management-System-ROOT\School-Based-Management-System-Manual\2025-BBTANAUAN\Coronation\Sheets\Master Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\School-Based Management System - ROOT\School-Based-Management-System\2025-BBTANAUAN\02 - Coronation\Sheets\Master Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59249969-53C1-44BD-BD1A-07B22900D2AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" xr2:uid="{E99D0CFE-8DDA-4C66-AD92-22189FFC58AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>BINIBINING TANAUAN 2025</t>
   </si>
@@ -45,17 +44,20 @@
     <t>Body Proportion and Physique</t>
   </si>
   <si>
-    <t>Requires a minimum total score of 45 per candidate.
-This will be added with last round's score</t>
+    <t>TOP 15 SWIMWEAR COMPETITION</t>
   </si>
   <si>
-    <t>TOP 15 SWIMWEAR COMPETITION</t>
+    <t>Previous Round</t>
+  </si>
+  <si>
+    <t>Requires a minimum total score of 75.00 per candidate.
+This sheet includes last round's total score in percentage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +145,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -325,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -408,6 +422,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,13 +522,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -548,15 +573,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>819874</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71388</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -584,8 +609,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4391025" y="171450"/>
-          <a:ext cx="647700" cy="614313"/>
+          <a:off x="5229949" y="171450"/>
+          <a:ext cx="1094651" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,15 +622,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
+      <xdr:colOff>1271980</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>438149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,8 +659,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="161925"/>
-          <a:ext cx="733425" cy="581024"/>
+          <a:off x="123825" y="152399"/>
+          <a:ext cx="1262455" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -943,28 +968,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBAC9F1-6CF6-40CC-A2A5-CC377E2CD240}">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" hidden="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -972,8 +998,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>0</v>
@@ -982,40 +1009,44 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2" s="26"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="27"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="28"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" s="23" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="29"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1023,8 +1054,9 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1032,298 +1064,320 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="10">
+      <c r="C9" s="36">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10">
         <v>30</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>30</v>
       </c>
-      <c r="E9" s="12">
-        <f>SUM(C9:D9)</f>
+      <c r="F9" s="12">
+        <f>SUM(D9:E9)</f>
         <v>60</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="G9" s="33"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16">
-        <f>SUM(C10:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" ref="F10:F24" si="0">_xlfn.RANK.AVG(E10,$E$10:$E$24,0)</f>
-        <v>8</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C10" s="37"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16">
+        <f>SUM(D10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" ref="G10:G24" si="0">_xlfn.RANK.AVG(F10,$F$10:$F$24,0)</f>
+        <v>8</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="18">
         <v>2</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16">
-        <f t="shared" ref="E11:E24" si="1">SUM(C11:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="C11" s="38"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16">
+        <f t="shared" ref="F11:F24" si="1">SUM(D11:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="20">
         <v>3</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16">
+      <c r="C12" s="39"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="24">
+      <c r="G12" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="18">
         <v>4</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16">
+      <c r="C13" s="38"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="19">
+      <c r="G13" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="18">
         <v>5</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16">
+      <c r="C14" s="38"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="19">
+      <c r="G14" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="18">
         <v>6</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16">
+      <c r="C15" s="38"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="19">
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="18">
         <v>7</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16">
+      <c r="C16" s="38"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="19">
+      <c r="G16" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="18">
         <v>8</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16">
+      <c r="C17" s="38"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="19">
+      <c r="G17" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="18">
         <v>9</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16">
+      <c r="C18" s="38"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="19">
+      <c r="G18" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="18">
         <v>10</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16">
+      <c r="C19" s="38"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="19">
+      <c r="G19" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="18">
         <v>11</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16">
+      <c r="C20" s="38"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="19">
+      <c r="G20" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="18">
         <v>12</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16">
+      <c r="C21" s="38"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="19">
+      <c r="G21" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="18">
         <v>13</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16">
+      <c r="C22" s="38"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="19">
+      <c r="G22" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="18">
         <v>14</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16">
+      <c r="C23" s="38"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="19">
+      <c r="G23" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="18">
+      <c r="B24" s="34">
         <v>15</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16">
+      <c r="C24" s="40"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="19">
+      <c r="G24" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1331,41 +1385,44 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RiuLz5/xS9zxMkecohzlBNARP/K7vRZYkRw53yINHhpUgxqhp6ofIre42UZpNSeF+iY1ncj+O8bmQGIphCx46Q==" saltValue="wgB8qQTFsi/xkAaVSFiihg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Mr06+JLbIge8rfeds5CTKrXnkrVThlhWaZwTe7tn787kjKsADWwGREE/pSuXJxxBrPOLK+s9KlGte1H5Ae8T8w==" saltValue="IG6+bXq7uMQoTUWhA+ZdYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="2T+Q/wRgqGxUmTdOjaByOdxfFWBYxb8g6wYcLkBSXaxGGPCA3o1f7vUoH/9A9gr9MnIEIpMYpXa9yMXxy+wZHQ==" saltValue="kfrkI+iRtCnlNuDjxamApQ==" spinCount="100000" sqref="B10:B24" name="NAMES"/>
-    <protectedRange sqref="C10:D24" name="SCOREBOARD"/>
+    <protectedRange sqref="D10:E24" name="SCOREBOARD"/>
+    <protectedRange algorithmName="SHA-512" hashValue="2T+Q/wRgqGxUmTdOjaByOdxfFWBYxb8g6wYcLkBSXaxGGPCA3o1f7vUoH/9A9gr9MnIEIpMYpXa9yMXxy+wZHQ==" saltValue="kfrkI+iRtCnlNuDjxamApQ==" spinCount="100000" sqref="B10:C24" name="PREVIOUS"/>
   </protectedRanges>
   <mergeCells count="6">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
-  <conditionalFormatting sqref="F10:F24">
+  <conditionalFormatting sqref="G10:G24">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>F10=1</formula>
+      <formula>G10=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:E24">
+  <conditionalFormatting sqref="D10:F24">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$E10&lt;45</formula>
+      <formula>$F10&lt;45</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:D24" xr:uid="{80597A48-B639-4164-972A-AFE568123AF4}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:E24">
       <formula1>0</formula1>
-      <formula2>C$9</formula2>
+      <formula2>D$9</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>